--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pyworkspace\InterfaceTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17411B93-4D5E-4A84-A23D-F9673A7319CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51391E7-3FED-4813-9201-3B81CC34400C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,18 +87,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"id":"J_100004770249"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'Content-Type':'application/x-www-form-urlencoded;charset=UTF-8'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>忽略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,7 +99,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NO</t>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J_100004770249</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,13 +470,13 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -502,13 +502,13 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
